--- a/xlsx/官话_intext.xlsx
+++ b/xlsx/官话_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1198">
   <si>
     <t>官话</t>
   </si>
@@ -29,19 +29,19 @@
     <t>北方话 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_官话</t>
+    <t>政策_政策_维基百科_官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%AD%B7%E4%BB%A3%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>中國歷代官方語言</t>
+    <t>中国历代官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B8%85%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>明清官話</t>
+    <t>明清官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%99%BD%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>漢白語族</t>
+    <t>汉白语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E6%BA%96%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>標準語言</t>
+    <t>标准语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%A0%87%E5%87%86%E6%B1%89%E8%AF%AD</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>中華民國國語</t>
+    <t>中华民国国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%96%B0%E5%8D%8E%E8%AF%AD</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>北方漢語</t>
+    <t>北方汉语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%96%B9%E8%A8%80</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>漢語族</t>
+    <t>汉语族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E8%AF%AD</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%89%E8%AA%9E</t>
   </si>
   <si>
-    <t>晉語</t>
+    <t>晋语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E8%AF%AD</t>
@@ -209,15 +209,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9B%E8%AA%9E</t>
   </si>
   <si>
-    <t>贛語</t>
+    <t>赣语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%A5%BF</t>
   </si>
   <si>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%98%87%E7%9C%81</t>
   </si>
   <si>
-    <t>江蘇省</t>
+    <t>江苏省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%B7%9E%E5%B8%82</t>
   </si>
   <si>
-    <t>蘇州市</t>
+    <t>苏州市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B4%E6%B1%9F%E5%8C%BA</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%A8%82%E5%B8%82</t>
   </si>
   <si>
-    <t>長樂市</t>
+    <t>长乐市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%9F%8E%E8%A1%97%E9%81%93_(%E7%A6%8F%E5%B7%9E%E5%B8%82)</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%AE%89%E8%A9%B1</t>
   </si>
   <si>
-    <t>西安話</t>
+    <t>西安话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E9%83%BD%E8%AF%9D</t>
@@ -389,31 +386,28 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B2%E8%AA%BF%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>聲調語言</t>
+    <t>声调语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%AA%9E</t>
   </si>
   <si>
-    <t>通用語</t>
+    <t>通用语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>馬來西亞</t>
+    <t>马来西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>華語</t>
+    <t>华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E5%AE%98%E8%AF%9D</t>
@@ -443,9 +437,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>粵語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
@@ -467,21 +458,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8D%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩南語</t>
+    <t>闽南语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>南京話</t>
+    <t>南京话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E6%BC%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代標準漢語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E8%AF%AD</t>
   </si>
   <si>
@@ -497,13 +485,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%A9%B1_(%E4%B8%AD%E5%9C%8B%E6%AD%B7%E5%8F%B2)</t>
   </si>
   <si>
-    <t>官話 (中國歷史)</t>
+    <t>官话 (中国历史)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%A8%99%E6%BA%96%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>現代標準華語</t>
+    <t>现代标准华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E5%87%86%E5%8D%8E%E8%AF%AD</t>
@@ -575,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>民國</t>
+    <t>民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -587,27 +575,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>國語</t>
+    <t>国语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>北京官話</t>
+    <t>北京官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%8B%E8%AF%AD</t>
   </si>
   <si>
-    <t>晋语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A3%E8%AF%AD</t>
   </si>
   <si>
-    <t>赣语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%AF%AD%E8%A8%80%E5%9C%B0%E5%9B%BE%E9%9B%86</t>
   </si>
   <si>
@@ -617,31 +599,28 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%E7%91%9E</t>
   </si>
   <si>
-    <t>羅傑瑞</t>
+    <t>罗杰瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E8%81%B2</t>
   </si>
   <si>
-    <t>入聲</t>
+    <t>入声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>南方官話</t>
+    <t>南方官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>北方官話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>中原官話</t>
+    <t>中原官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E7%A0%94%E7%A9%B6%E9%99%A2</t>
@@ -659,9 +638,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%AE%98%E8%AF%9D</t>
   </si>
   <si>
-    <t>北京官话</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BD%E5%AE%81</t>
   </si>
   <si>
@@ -779,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%AF%E9%84%B2</t>
   </si>
   <si>
-    <t>邯鄲</t>
+    <t>邯郸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%8E%E5%8D%97</t>
@@ -797,9 +773,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8E%9F%E5%AE%98%E8%AF%9D</t>
   </si>
   <si>
-    <t>中原官话</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B0%E9%93%B6%E5%AE%98%E8%AF%9D</t>
   </si>
   <si>
@@ -881,45 +854,27 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%AE%98%E8%AF%9D</t>
   </si>
   <si>
-    <t>南方官话</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E6%B1%9F%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>下江官話</t>
+    <t>下江官话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>東北官話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E9%81%BC%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>膠遼官話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>西南官話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>江淮官話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%8A%80%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>蘭銀官話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B7%E6%B1%9F%E8%AF%9D</t>
   </si>
   <si>
@@ -959,15 +914,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%81%B2</t>
   </si>
   <si>
-    <t>平聲</t>
+    <t>平声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E5%A3%B0</t>
   </si>
   <si>
-    <t>入声</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B2%B7%E6%B1%9F%E5%B0%8F%E7%89%87</t>
   </si>
   <si>
@@ -1007,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>民族語</t>
+    <t>民族语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8E%E4%B8%AD%E5%8F%A4%E6%B1%89%E8%AF%AD%E5%88%B0%E5%AE%98%E8%AF%9D%E7%9A%84%E8%AF%AD%E9%9F%B3%E6%BC%94%E5%8F%98</t>
@@ -1025,15 +977,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%97%8F</t>
   </si>
   <si>
-    <t>汉语族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E8%AF%AD</t>
   </si>
   <si>
-    <t>通用语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%82%E6%9F%B3%E5%AE%98%E8%AF%9D</t>
   </si>
   <si>
@@ -1043,7 +989,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>吳語方言</t>
+    <t>吴语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E6%B9%96%E7%89%87</t>
@@ -1073,7 +1019,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BA%97%E7%89%87</t>
   </si>
   <si>
-    <t>上麗片</t>
+    <t>上丽片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%B7%9E%E7%89%87</t>
@@ -1091,13 +1037,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%95%E8%A9%B1</t>
   </si>
   <si>
-    <t>潮汕話</t>
+    <t>潮汕话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%99%E5%8D%97%E9%96%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>浙南閩語</t>
+    <t>浙南闽语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%94%B0%E8%AF%9D</t>
@@ -1109,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B1%B1%E9%96%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>中山閩語</t>
+    <t>中山闽语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E6%9D%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩東語</t>
+    <t>闽东语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%AF%E5%AE%98%E7%89%87</t>
@@ -1139,19 +1085,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E5%8C%97%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩北語</t>
+    <t>闽北语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%A9%E4%B8%AD%E8%AA%9E</t>
   </si>
   <si>
-    <t>閩中語</t>
+    <t>闽中语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%86%E4%BB%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>莆仙語</t>
+    <t>莆仙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%B5%E5%B0%86%E8%AF%AD</t>
@@ -1163,25 +1109,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%E9%9B%B7%E8%A9%B1</t>
   </si>
   <si>
-    <t>瓊雷話</t>
+    <t>琼雷话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>粵語方言</t>
+    <t>粤语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B7%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣州話</t>
+    <t>广州话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>香港粵語</t>
+    <t>香港粤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%BA%90%E9%9F%B3</t>
@@ -1199,13 +1145,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%AA%9E%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>客語方言</t>
+    <t>客语方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E7%B8%A3%E8%A9%B1</t>
   </si>
   <si>
-    <t>梅縣話</t>
+    <t>梅县话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%B2%E8%AF%9D</t>
@@ -1241,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E8%A5%BF%E5%B9%B3%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣西平話</t>
+    <t>广西平话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E8%AF%9D</t>
@@ -1265,7 +1211,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E9%A6%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>富馬話</t>
+    <t>富马话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%97</t>
@@ -1283,19 +1229,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>漢字</t>
+    <t>汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E9%AB%94%E4%B8%AD%E6%96%87</t>
   </si>
   <si>
-    <t>繁體中文</t>
+    <t>繁体中文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E9%AB%94%E5%AD%97</t>
   </si>
   <si>
-    <t>正體字</t>
+    <t>正体字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%E4%BD%93%E4%B8%AD%E6%96%87</t>
@@ -1319,31 +1265,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>白話文</t>
+    <t>白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%B7%9E%E9%9F%BB%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>中州韻白話文</t>
+    <t>中州韵白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%A9%B1%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>官話白話文</t>
+    <t>官话白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%B3%E8%AA%9E%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>吳語白話文</t>
+    <t>吴语白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E%E7%99%BD%E8%A9%B1%E6%96%87</t>
   </si>
   <si>
-    <t>粵語白話文</t>
+    <t>粤语白话文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8F%8A%E7%AC%AC</t>
@@ -1379,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E6%9C%83%E7%BE%85%E9%A6%AC%E5%AD%97</t>
   </si>
   <si>
-    <t>教會羅馬字</t>
+    <t>教会罗马字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B9%B2%E8%AF%AD</t>
@@ -1409,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%AA%9E%E5%81%87%E5%90%8D</t>
   </si>
   <si>
-    <t>臺灣語假名</t>
+    <t>台湾语假名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B3%E6%B4%9B%E5%AD%97%E8%A7%92</t>
@@ -1421,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E8%AA%9E%E8%AB%BA%E6%96%87</t>
   </si>
   <si>
-    <t>臺語諺文</t>
+    <t>台语谚文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E4%B9%A6</t>
@@ -1433,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%BE%85%E5%8F%B0%E6%96%87</t>
   </si>
   <si>
-    <t>漢羅台文</t>
+    <t>汉罗台文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E6%96%87%E5%AD%A6</t>
@@ -1451,7 +1397,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%BC%A2%E8%97%8F%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始漢藏語</t>
+    <t>原始汉藏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E6%B1%89%E8%AF%AD</t>
@@ -1481,7 +1427,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E4%BB%A3%E9%9F%B3%E7%B3%BB</t>
   </si>
   <si>
-    <t>漢代音系</t>
+    <t>汉代音系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E4%BB%A3%E9%9F%B3%E7%B3%BB</t>
@@ -1541,25 +1487,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E9%83%A8%E5%9C%8B%E8%AA%9E%E6%8E%A8%E8%A1%8C%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>教育部國語推行委員會</t>
+    <t>教育部国语推行委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E6%8E%A8%E5%BB%A3%E8%8F%AF%E8%AA%9E%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>新加坡推廣華語理事會</t>
+    <t>新加坡推广华语理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5%E8%A5%BF%E4%BA%9A</t>
   </si>
   <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%8F%AF%E8%AA%9E%E8%A6%8F%E7%AF%84%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>馬來西亞華語規範理事會</t>
+    <t>马来西亚华语规范理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD%E6%96%B9%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -1571,21 +1514,15 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>中國語言</t>
+    <t>中国语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%97%8F%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>漢藏語系</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>官話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B6%E5%B7%9E%E7%89%87</t>
   </si>
   <si>
@@ -1595,19 +1532,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%91%82%E6%A2%81%E7%89%87</t>
   </si>
   <si>
-    <t>呂梁片</t>
+    <t>吕梁片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E9%BB%A8%E7%89%87</t>
   </si>
   <si>
-    <t>上黨片</t>
+    <t>上党片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E8%87%BA%E7%89%87</t>
   </si>
   <si>
-    <t>五臺片</t>
+    <t>五台片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%AF%E6%96%B0%E7%89%87</t>
@@ -1625,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%91%BC%E7%89%87</t>
   </si>
   <si>
-    <t>張呼片</t>
+    <t>张呼片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E5%BB%B6%E7%89%87</t>
@@ -1637,9 +1574,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%BD%E4%B8%AD%E8%AF%AD</t>
   </si>
   <si>
-    <t>闽中语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%BC%E6%96%87%E7%89%87</t>
   </si>
   <si>
@@ -1673,9 +1607,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B9%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>湘語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B0%E6%BA%86%E7%89%87</t>
   </si>
   <si>
@@ -1697,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E7%80%8F%E7%89%87</t>
   </si>
   <si>
-    <t>宜瀏片</t>
+    <t>宜浏片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%8C%B6%E7%89%87</t>
@@ -1709,13 +1640,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%92%AB%E5%BB%A3%E7%89%87</t>
   </si>
   <si>
-    <t>撫廣片</t>
+    <t>抚广片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B7%B9%E5%BC%8B%E7%89%87</t>
   </si>
   <si>
-    <t>鷹弋片</t>
+    <t>鹰弋片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%80%9A%E7%89%87</t>
@@ -1727,31 +1658,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%92%E8%B3%87%E7%89%87</t>
   </si>
   <si>
-    <t>耒資片</t>
+    <t>耒资片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E5%B6%BD%E7%89%87</t>
   </si>
   <si>
-    <t>懷嶽片</t>
+    <t>怀岳片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E7%B6%8F%E7%89%87</t>
   </si>
   <si>
-    <t>洞綏片</t>
+    <t>洞绥片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8F%B0%E7%89%87</t>
   </si>
   <si>
-    <t>粵台片</t>
+    <t>粤台片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E4%B8%AD%E7%89%87</t>
   </si>
   <si>
-    <t>粵中片</t>
+    <t>粤中片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%80%E5%B7%9E%E7%89%87</t>
@@ -1763,43 +1694,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A7%E9%BE%8D%E7%89%87</t>
   </si>
   <si>
-    <t>寧龍片</t>
+    <t>宁龙片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85%E9%BC%93%E7%89%87</t>
   </si>
   <si>
-    <t>銅鼓片</t>
+    <t>铜鼓片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8C%97%E7%89%87</t>
   </si>
   <si>
-    <t>粵北片</t>
+    <t>粤北片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%A5%BF%E7%89%87</t>
   </si>
   <si>
-    <t>粵西片</t>
+    <t>粤西片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A5%92%E5%B9%B3%E5%AE%A2%E5%AE%B6%E8%AA%9E</t>
   </si>
   <si>
-    <t>饒平客家語</t>
+    <t>饶平客家语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E6%B5%B7%E7%89%87</t>
   </si>
   <si>
-    <t>粵海片</t>
+    <t>粤海片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%9E%E5%AF%B6%E7%89%87</t>
   </si>
   <si>
-    <t>莞寶片</t>
+    <t>莞宝片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%BE%E6%BC%8F%E7%89%87</t>
@@ -1823,13 +1754,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E5%8C%97%E5%9C%9F%E8%A9%B1</t>
   </si>
   <si>
-    <t>粵北土話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E5%AE%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>蔡家話</t>
+    <t>蔡家话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%9C%80%E8%AF%AD</t>
@@ -1841,13 +1769,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%85%92%E8%A8%80%E8%AA%9E</t>
   </si>
   <si>
-    <t>漢兒言語</t>
+    <t>汉儿言语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E8%AA%9E</t>
   </si>
   <si>
-    <t>楚語</t>
+    <t>楚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%97%E7%91%B6%E8%AF%AD%E6%97%8F</t>
@@ -1949,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%A4%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>布央語</t>
+    <t>布央语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%A0%87%E8%AF%AD</t>
@@ -1961,13 +1889,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A1%E9%9A%86%E8%AA%9E</t>
   </si>
   <si>
-    <t>仡隆語</t>
+    <t>仡隆语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%BD%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>木佬語</t>
+    <t>木佬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%BF%E8%AF%AD</t>
@@ -2021,13 +1949,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%AF%E5%83%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>佯僙語</t>
+    <t>佯僙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E6%B3%B0%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>壯泰語支</t>
+    <t>壮泰语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AE%E8%AF%AD</t>
@@ -2051,13 +1979,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>儂語</t>
+    <t>侬语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E9%AB%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>臨高語</t>
+    <t>临高语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%AF%AD</t>
@@ -2075,7 +2003,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%A3%E4%BB%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>傣仂語</t>
+    <t>傣仂语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E9%87%91%E5%82%A3%E8%AF%AD</t>
@@ -2111,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8C%82%E8%AA%9E</t>
   </si>
   <si>
-    <t>加茂語</t>
+    <t>加茂语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E7%BC%85%E8%AF%AD%E6%97%8F</t>
@@ -2129,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>藏語支</t>
+    <t>藏语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AF%AD</t>
@@ -2141,7 +2069,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E8%97%8F%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>衛藏方言</t>
+    <t>卫藏方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%96%B9%E8%A8%80</t>
@@ -2249,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%BE%E8%98%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>爾蘇語</t>
+    <t>尔苏语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E8%A5%BF%E8%AF%AD</t>
@@ -2261,25 +2189,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%9C%A8%E4%BE%9D%E8%AA%9E</t>
   </si>
   <si>
-    <t>納木依語</t>
+    <t>纳木依语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%88%88%E8%AA%9E</t>
   </si>
   <si>
-    <t>史興語</t>
+    <t>史兴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%BD%9D%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>緬彝語群</t>
+    <t>缅彝语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>彝語支</t>
+    <t>彝语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%9D%E8%AF%AD</t>
@@ -2339,13 +2267,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%A5%9C%E8%AA%9E</t>
   </si>
   <si>
-    <t>拉祜語</t>
+    <t>拉祜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E8%AB%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>基諾語</t>
+    <t>基诺语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%92%E8%8B%8F%E8%AF%AD</t>
@@ -2381,7 +2309,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E8%AA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>緬語支</t>
+    <t>缅语支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E7%93%A6%E8%AF%AD</t>
@@ -2417,7 +2345,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%AA%9E</t>
   </si>
   <si>
-    <t>白語</t>
+    <t>白语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E8%AF%AD%E7%BE%A4</t>
@@ -2483,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E9%BE%8D%E8%AA%9E</t>
   </si>
   <si>
-    <t>蘇龍語</t>
+    <t>苏龙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%89%E9%83%BD-%E8%BE%BE%E8%AE%A9%E8%AF%AD%E6%94%AF</t>
@@ -2603,7 +2531,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%9F%E5%90%88%E5%8F%B0%E8%AA%9E</t>
   </si>
   <si>
-    <t>察合台語</t>
+    <t>察合台语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%B9%98%E8%AF%AD</t>
@@ -2615,7 +2543,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E7%B4%87%E8%AA%9E</t>
   </si>
   <si>
-    <t>回紇語</t>
+    <t>回纥语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%99%80</t>
@@ -2711,7 +2639,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%BF%E6%B4%B2%E8%AA%9E</t>
   </si>
   <si>
-    <t>滿洲語</t>
+    <t>满洲语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E4%BC%AF%E8%AF%AD</t>
@@ -2741,19 +2669,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E7%9C%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>女真語</t>
+    <t>女真语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B6%E4%BD%99%EF%BC%8D%E6%96%B0%E7%BD%97%E8%AF%AD%E7%B3%BB</t>
   </si>
   <si>
-    <t>扶余－新罗语系</t>
+    <t>扶馀－新罗语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%9C%9D%E9%AE%AE%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國朝鮮語</t>
+    <t>中国朝鲜语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8F%A5%E4%B8%BD%E8%AF%AD</t>
@@ -2765,13 +2693,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%A4%E6%B5%B7%E8%AA%9E</t>
   </si>
   <si>
-    <t>渤海語</t>
+    <t>渤海语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B3%B6%E8%AA%9E%E7%B3%BB</t>
   </si>
   <si>
-    <t>南島語系</t>
+    <t>南岛语系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%9D%A5-%E6%B3%A2%E5%88%A9%E5%B0%BC%E8%A5%BF%E4%BA%9A%E8%AF%AD%E6%97%8F</t>
@@ -2783,43 +2711,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E8%BC%9D%E8%A9%B1</t>
   </si>
   <si>
-    <t>回輝話</t>
+    <t>回辉话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%82%9F%E8%AA%9E</t>
   </si>
   <si>
-    <t>達悟語</t>
+    <t>达悟语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3%E5%8D%97%E5%B3%B6%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>台灣南島語言</t>
+    <t>台湾南岛语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E9%9B%85%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>泰雅語群</t>
+    <t>泰雅语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E7%81%A3%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>排灣語群</t>
+    <t>排湾语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%92%E8%AA%9E%E7%BE%A4</t>
   </si>
   <si>
-    <t>鄒語群</t>
+    <t>邹语群</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E5%87%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>魯凱語</t>
+    <t>鲁凯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%9A%E8%AF%AD%E7%B3%BB</t>
@@ -2831,7 +2759,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E8%AA%9E</t>
   </si>
   <si>
-    <t>京語</t>
+    <t>京语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E8%AF%AD</t>
@@ -2861,7 +2789,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A4%E8%AA%9E</t>
   </si>
   <si>
-    <t>佤語</t>
+    <t>佤语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E8%AF%AD</t>
@@ -2999,13 +2927,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%92%E8%A9%B1</t>
   </si>
   <si>
-    <t>誒話</t>
+    <t>诶话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%B1%AF%E8%A9%B1</t>
   </si>
   <si>
-    <t>五屯話</t>
+    <t>五屯话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%AB%E5%AE%B6%E8%AF%9D</t>
@@ -3029,7 +2957,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9C%9F%E7%94%9F%E8%91%A1%E8%AA%9E</t>
   </si>
   <si>
-    <t>澳門土生葡語</t>
+    <t>澳门土生葡语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%8B%E6%B3%BE%E6%B5%9C%E8%8B%B1%E8%AF%AD</t>
@@ -3047,7 +2975,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E5%A5%B4%E8%AA%9E</t>
   </si>
   <si>
-    <t>匈奴語</t>
+    <t>匈奴语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%A4%B7%E8%AF%AD</t>
@@ -3059,19 +2987,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>手語</t>
+    <t>手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>中國手語</t>
+    <t>中国手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%89%8B%E8%AA%9E</t>
   </si>
   <si>
-    <t>香港手語</t>
+    <t>香港手语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AF%AD%E6%89%8B%E8%AF%AD</t>
@@ -3095,43 +3023,40 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AA%9E%E9%9B%99%E6%8B%BC%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>漢語雙拼盲文</t>
+    <t>汉语双拼盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8F%E8%AA%9E%E7%9B%B2%E6%96%87</t>
   </si>
   <si>
-    <t>藏語盲文</t>
+    <t>藏语盲文</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E8%B7%A1%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>絕跡語言</t>
+    <t>绝迹语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E8%A9%B1</t>
   </si>
   <si>
-    <t>北京話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>馬來西亞華語</t>
+    <t>马来西亚华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E8%8F%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>新加坡華語</t>
+    <t>新加坡华语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%9A%E8%A9%B1</t>
   </si>
   <si>
-    <t>保定話</t>
+    <t>保定话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E8%B0%B7%E8%AF%9D</t>
@@ -3149,7 +3074,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%99%BD%E8%A9%B1</t>
   </si>
   <si>
-    <t>高陽話</t>
+    <t>高阳话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%88%E9%98%B3%E8%AF%9D</t>
@@ -3203,7 +3128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%A3%A3%E8%A9%B1</t>
   </si>
   <si>
-    <t>無棣話</t>
+    <t>无棣话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A0%E5%88%A9%E7%89%87</t>
@@ -3215,7 +3140,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BB%E9%80%A3%E7%89%87</t>
   </si>
   <si>
-    <t>登連片</t>
+    <t>登连片</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%BF%9E%E8%AF%9D</t>
@@ -3233,7 +3158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B3%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>青島話</t>
+    <t>青岛话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E5%B0%81%E8%AF%9D</t>
@@ -3263,7 +3188,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E9%99%BD%E8%A9%B1</t>
   </si>
   <si>
-    <t>洛陽話</t>
+    <t>洛阳话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%B7%9E%E8%AF%9D</t>
@@ -3299,7 +3224,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%A6%AE%E8%A9%B1</t>
   </si>
   <si>
-    <t>萬榮話</t>
+    <t>万荣话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E4%B8%AD%E7%89%87</t>
@@ -3335,7 +3260,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%AE%E5%AE%89%E8%A9%B1</t>
   </si>
   <si>
-    <t>淮安話</t>
+    <t>淮安话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%87%E6%B1%9F%E8%AF%9D</t>
@@ -3347,7 +3272,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B9%BD%E5%9F%8E%E8%A9%B1</t>
   </si>
   <si>
-    <t>鹽城話</t>
+    <t>盐城话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%95%BF%E8%AF%9D</t>
@@ -3359,7 +3284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%97%E9%99%BD%E8%A9%B1</t>
   </si>
   <si>
-    <t>泗陽話</t>
+    <t>泗阳话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%82%A5%E8%AF%9D</t>
@@ -3371,7 +3296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%AC%E6%B1%9F%E8%A9%B1</t>
   </si>
   <si>
-    <t>廬江話</t>
+    <t>庐江话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9C%E6%B9%96%E8%AF%9D</t>
@@ -3389,13 +3314,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%8E%E6%BA%AA%E8%A9%B1</t>
   </si>
   <si>
-    <t>郎溪話</t>
+    <t>郎溪话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%BE%B7%E8%A9%B1</t>
   </si>
   <si>
-    <t>廣德話</t>
+    <t>广德话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E6%B3%B0%E7%89%87</t>
@@ -3413,19 +3338,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A6%82%E7%9A%8B%E8%A9%B1</t>
   </si>
   <si>
-    <t>如皋話</t>
+    <t>如皋话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E8%88%88%E8%A9%B1</t>
   </si>
   <si>
-    <t>泰興話</t>
+    <t>泰兴话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%B7%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>泰州話</t>
+    <t>泰州话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E5%AD%9D%E7%89%87</t>
@@ -3437,7 +3362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%99%B8%E8%A9%B1</t>
   </si>
   <si>
-    <t>安陸話</t>
+    <t>安陆话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%B8%9D%E7%89%87</t>
@@ -3449,13 +3374,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%85%B6%E8%A9%B1</t>
   </si>
   <si>
-    <t>重慶話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E9%99%BD%E8%A9%B1</t>
   </si>
   <si>
-    <t>貴陽話</t>
+    <t>贵阳话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E4%B8%AD%E8%AF%9D</t>
@@ -3473,7 +3395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%96%B9%E8%A9%B1</t>
   </si>
   <si>
-    <t>大方話</t>
+    <t>大方话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%8C%E8%B5%A4%E7%89%87</t>
@@ -3485,7 +3407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%82%E5%B1%B1%E8%A9%B1</t>
   </si>
   <si>
-    <t>樂山話</t>
+    <t>乐山话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E5%AE%BE%E8%AF%9D</t>
@@ -3497,19 +3419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E5%8D%97%E8%A9%B1</t>
   </si>
   <si>
-    <t>思南話</t>
+    <t>思南话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B5%E7%BE%A9%E8%A9%B1</t>
   </si>
   <si>
-    <t>遵義話</t>
+    <t>遵义话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%B2%A2%E8%A9%B1</t>
   </si>
   <si>
-    <t>自貢話</t>
+    <t>自贡话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%81%E5%AF%8C%E5%B0%8F%E7%89%87</t>
@@ -3527,19 +3449,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%E7%B8%A3%E8%A9%B1</t>
   </si>
   <si>
-    <t>榮縣話</t>
+    <t>荣县话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%98%8C%E8%A9%B1</t>
   </si>
   <si>
-    <t>西昌話</t>
+    <t>西昌话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E6%98%8E%E8%A9%B1</t>
   </si>
   <si>
-    <t>昆明話</t>
+    <t>昆明话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E9%9B%84%E8%AF%9D</t>
@@ -3557,7 +3479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%9C%E6%95%A2%E8%AA%9E</t>
   </si>
   <si>
-    <t>果敢語</t>
+    <t>果敢语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E6%B1%89%E8%AF%9D</t>
@@ -3569,7 +3491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%8E%E5%B9%B3%E8%A9%B1</t>
   </si>
   <si>
-    <t>黎平話</t>
+    <t>黎平话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9C%E6%98%8C%E8%AF%9D</t>
@@ -3605,15 +3527,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%AF%A8%E8%A9%B1</t>
   </si>
   <si>
-    <t>丹寨話</t>
+    <t>丹寨话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E4%BA%AC%E5%AE%98%E8%A9%B1</t>
   </si>
   <si>
-    <t>南京官話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%B9%B3%E8%AF%9D</t>
   </si>
   <si>
@@ -3629,7 +3548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E8%AA%9E%E8%A8%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>臺灣語言列表</t>
+    <t>台湾语言列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E4%B9%90%E6%97%97%E4%B8%8B%E8%AF%9D</t>
@@ -3641,7 +3560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E8%A9%B1</t>
   </si>
   <si>
-    <t>東北話</t>
+    <t>东北话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%A5%BF%E8%AF%9D</t>
@@ -3653,7 +3572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%9D%E8%A5%BF%E8%A9%B1</t>
   </si>
   <si>
-    <t>陝西話</t>
+    <t>陕西话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E4%B8%9C%E8%AF%9D</t>
@@ -3671,7 +3590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E8%98%87%E6%96%B9%E8%A8%80</t>
   </si>
   <si>
-    <t>江蘇方言</t>
+    <t>江苏方言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%BD%E6%96%B9%E8%A8%80</t>
@@ -3683,19 +3602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%B7%9D%E8%A9%B1</t>
   </si>
   <si>
-    <t>四川話</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E5%B7%9E%E8%A9%B1</t>
   </si>
   <si>
-    <t>貴州話</t>
+    <t>贵州话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%B9%B2%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>東干語</t>
   </si>
 </sst>
 </file>
@@ -5023,7 +4936,7 @@
         <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G34" t="n">
         <v>31</v>
@@ -5049,10 +4962,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -5078,10 +4991,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -5107,10 +5020,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>6</v>
@@ -5136,10 +5049,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -5165,10 +5078,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -5194,10 +5107,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -5223,10 +5136,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -5252,10 +5165,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -5281,10 +5194,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -5310,10 +5223,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -5339,10 +5252,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -5368,10 +5281,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -5397,10 +5310,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -5426,10 +5339,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -5455,10 +5368,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -5484,10 +5397,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -5513,10 +5426,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -5542,10 +5455,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -5571,10 +5484,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -5600,10 +5513,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -5629,10 +5542,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -5658,10 +5571,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -5687,10 +5600,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>13</v>
@@ -5716,10 +5629,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>10</v>
@@ -5745,10 +5658,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -5774,10 +5687,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -5803,10 +5716,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -5832,10 +5745,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5861,10 +5774,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5890,10 +5803,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -5919,10 +5832,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -5948,10 +5861,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -5977,10 +5890,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>7</v>
@@ -6006,10 +5919,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>10</v>
@@ -6035,10 +5948,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -6064,10 +5977,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -6093,10 +6006,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -6122,10 +6035,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="G72" t="n">
         <v>4</v>
@@ -6151,10 +6064,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G73" t="n">
         <v>80</v>
@@ -6209,10 +6122,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -6238,10 +6151,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -6267,10 +6180,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -6296,10 +6209,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -6354,10 +6267,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -6383,10 +6296,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81" t="s">
         <v>115</v>
-      </c>
-      <c r="F81" t="s">
-        <v>116</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -6412,10 +6325,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -6441,10 +6354,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -6470,10 +6383,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>4</v>
@@ -6499,10 +6412,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>124</v>
@@ -6528,10 +6441,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -6557,10 +6470,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -6586,10 +6499,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>12</v>
@@ -6615,10 +6528,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -6644,10 +6557,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -6673,10 +6586,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -6702,10 +6615,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -6731,10 +6644,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -6760,10 +6673,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F94" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -6789,10 +6702,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>15</v>
@@ -6818,10 +6731,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -6847,10 +6760,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>12</v>
@@ -6876,10 +6789,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -6905,10 +6818,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>7</v>
@@ -6934,10 +6847,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -6963,10 +6876,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>112</v>
+      </c>
+      <c r="F101" t="s">
         <v>113</v>
-      </c>
-      <c r="F101" t="s">
-        <v>114</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -6992,10 +6905,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F102" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -7021,10 +6934,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G103" t="n">
         <v>6</v>
@@ -7050,10 +6963,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="G104" t="n">
         <v>9</v>
@@ -7079,10 +6992,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -7108,10 +7021,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -7137,10 +7050,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G107" t="n">
         <v>4</v>
@@ -7166,10 +7079,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G108" t="n">
         <v>7</v>
@@ -7195,10 +7108,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -7224,10 +7137,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -7253,10 +7166,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G111" t="n">
         <v>4</v>
@@ -7282,10 +7195,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -7311,10 +7224,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G113" t="n">
         <v>4</v>
@@ -7340,10 +7253,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="G114" t="n">
         <v>6</v>
@@ -7369,10 +7282,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G115" t="n">
         <v>3</v>
@@ -7398,10 +7311,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -7427,10 +7340,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -7456,10 +7369,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -7485,10 +7398,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G119" t="n">
         <v>18</v>
@@ -7514,10 +7427,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -7543,10 +7456,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -7572,10 +7485,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -7601,10 +7514,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -7630,10 +7543,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -7659,10 +7572,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -7688,10 +7601,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -7717,10 +7630,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F127" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -7746,10 +7659,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F128" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -7775,10 +7688,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7804,10 +7717,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F130" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G130" t="n">
         <v>5</v>
@@ -7833,10 +7746,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -7862,10 +7775,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F132" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7891,10 +7804,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="F133" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7920,10 +7833,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F134" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7949,10 +7862,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7978,10 +7891,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -8007,10 +7920,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="G137" t="n">
         <v>5</v>
@@ -8036,10 +7949,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -8065,10 +7978,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -8094,10 +8007,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -8123,10 +8036,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F141" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -8152,10 +8065,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F142" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -8181,10 +8094,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F143" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -8210,10 +8123,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F144" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -8239,10 +8152,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F145" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -8268,10 +8181,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F146" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -8297,10 +8210,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F147" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -8326,10 +8239,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -8355,10 +8268,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -8384,10 +8297,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -8413,10 +8326,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>288</v>
+        <v>198</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -8442,10 +8355,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F152" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -8471,10 +8384,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F153" t="s">
-        <v>292</v>
+        <v>205</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -8500,10 +8413,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F154" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -8529,10 +8442,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>230</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -8587,10 +8500,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F157" t="s">
-        <v>296</v>
+        <v>111</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -8616,10 +8529,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c r="G158" t="n">
         <v>5</v>
@@ -8645,10 +8558,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -8703,10 +8616,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="F161" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -8732,10 +8645,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="F162" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -8761,10 +8674,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="F163" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="G163" t="n">
         <v>6</v>
@@ -8790,10 +8703,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F164" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -8819,10 +8732,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="F165" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -8848,10 +8761,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="F166" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8877,10 +8790,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F167" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -8906,10 +8819,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="F168" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -8935,10 +8848,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -8964,10 +8877,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="F170" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8993,10 +8906,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -9022,10 +8935,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -9051,10 +8964,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="F173" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -9080,10 +8993,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="F174" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="G174" t="n">
         <v>6</v>
@@ -9109,10 +9022,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="F175" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -9138,10 +9051,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="F176" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -9167,10 +9080,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F177" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -9196,10 +9109,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F178" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="G178" t="n">
         <v>5</v>
@@ -9225,10 +9138,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -9254,10 +9167,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="G180" t="n">
         <v>6</v>
@@ -9283,10 +9196,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F181" t="s">
-        <v>336</v>
+        <v>50</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -9312,10 +9225,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>50</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -9370,10 +9283,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F184" t="s">
-        <v>338</v>
+        <v>125</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -9399,10 +9312,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="F185" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -9428,10 +9341,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="F186" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -9457,10 +9370,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="F187" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -9486,10 +9399,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="F188" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -9515,10 +9428,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="F189" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -9544,10 +9457,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="F190" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -9573,10 +9486,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="F191" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -9602,10 +9515,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="F192" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -9631,10 +9544,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="F193" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -9660,10 +9573,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="F194" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -9689,10 +9602,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="F195" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -9718,10 +9631,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="F196" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -9747,10 +9660,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="F197" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -9776,10 +9689,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="F198" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -9805,10 +9718,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="F199" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9834,10 +9747,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="F200" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -9863,10 +9776,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F201" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9892,10 +9805,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F202" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -9921,10 +9834,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="F203" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -9950,10 +9863,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="F204" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -9979,10 +9892,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="F205" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -10008,10 +9921,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F206" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -10037,10 +9950,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="F207" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -10066,10 +9979,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F208" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -10095,10 +10008,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F209" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -10124,10 +10037,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F210" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -10153,10 +10066,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="F211" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -10182,10 +10095,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F212" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -10211,10 +10124,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="F213" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -10240,10 +10153,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F214" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -10298,10 +10211,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F216" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -10327,10 +10240,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F217" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -10356,10 +10269,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="F218" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G218" t="n">
         <v>2</v>
@@ -10385,10 +10298,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="F219" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -10414,10 +10327,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F220" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -10443,10 +10356,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F221" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -10472,10 +10385,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F222" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -10501,10 +10414,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="F223" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -10530,10 +10443,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="F224" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -10559,10 +10472,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F225" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -10588,10 +10501,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -10617,10 +10530,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F227" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -10646,10 +10559,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F228" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -10675,10 +10588,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="F229" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -10704,10 +10617,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F230" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -10733,10 +10646,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F231" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -10762,10 +10675,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="F232" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -10791,10 +10704,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F233" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10820,10 +10733,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F234" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10849,10 +10762,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="F235" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10878,10 +10791,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="F236" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10907,10 +10820,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="F237" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10936,10 +10849,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="F238" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10965,10 +10878,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F239" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10994,10 +10907,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="F240" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -11023,10 +10936,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="F241" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -11052,10 +10965,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="F242" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -11081,10 +10994,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="F243" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -11110,10 +11023,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="F244" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -11139,10 +11052,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="F245" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -11168,10 +11081,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="F246" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -11197,10 +11110,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="F247" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -11226,10 +11139,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="F248" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -11255,10 +11168,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="F249" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -11284,10 +11197,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="F250" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -11313,10 +11226,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="F251" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -11342,10 +11255,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="F252" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -11371,10 +11284,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="F253" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -11400,10 +11313,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="F254" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -11429,10 +11342,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="F255" t="s">
-        <v>478</v>
+        <v>460</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -11458,10 +11371,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="F256" t="s">
-        <v>480</v>
+        <v>462</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -11487,10 +11400,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F257" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -11574,10 +11487,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -11603,10 +11516,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -11632,10 +11545,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -11661,10 +11574,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -11690,10 +11603,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -11719,10 +11632,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -11748,10 +11661,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -11777,10 +11690,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="G267" t="n">
         <v>7</v>
@@ -11806,10 +11719,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F268" t="s">
-        <v>154</v>
+        <v>30</v>
       </c>
       <c r="G268" t="n">
         <v>7</v>
@@ -11835,10 +11748,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="F269" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="G269" t="n">
         <v>6</v>
@@ -11864,10 +11777,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F270" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -11893,10 +11806,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="F271" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -11922,10 +11835,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="F272" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11951,10 +11864,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="F273" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="G273" t="n">
         <v>2</v>
@@ -11980,10 +11893,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F274" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -12009,10 +11922,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="F275" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -12038,10 +11951,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="F276" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -12067,10 +11980,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="F277" t="s">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -12096,10 +12009,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F278" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -12125,10 +12038,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="F279" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -12154,10 +12067,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="F280" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="G280" t="n">
         <v>4</v>
@@ -12183,10 +12096,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="F281" t="s">
-        <v>520</v>
+        <v>18</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -12212,10 +12125,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="F282" t="s">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="G282" t="n">
         <v>94</v>
@@ -12241,10 +12154,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F283" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -12270,10 +12183,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F284" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -12299,10 +12212,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="F285" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -12328,10 +12241,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F286" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -12357,10 +12270,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="F287" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -12386,10 +12299,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="F288" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -12415,10 +12328,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="F289" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -12444,10 +12357,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
       <c r="F290" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -12473,10 +12386,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
       <c r="F291" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -12502,10 +12415,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="F292" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -12531,10 +12444,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="F293" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -12560,10 +12473,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="F294" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -12589,10 +12502,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="F295" t="s">
-        <v>540</v>
+        <v>358</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -12618,10 +12531,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F296" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -12647,10 +12560,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="F297" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -12676,10 +12589,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>543</v>
+        <v>521</v>
       </c>
       <c r="F298" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -12705,10 +12618,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>545</v>
+        <v>523</v>
       </c>
       <c r="F299" t="s">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -12734,10 +12647,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>547</v>
+        <v>525</v>
       </c>
       <c r="F300" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -12763,10 +12676,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>549</v>
+        <v>527</v>
       </c>
       <c r="F301" t="s">
-        <v>550</v>
+        <v>528</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -12792,10 +12705,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>551</v>
+        <v>529</v>
       </c>
       <c r="F302" t="s">
-        <v>552</v>
+        <v>60</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12821,10 +12734,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="F303" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12850,10 +12763,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>555</v>
+        <v>532</v>
       </c>
       <c r="F304" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12879,10 +12792,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="F305" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12908,10 +12821,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
       <c r="F306" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12937,10 +12850,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="F307" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12966,10 +12879,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="F308" t="s">
-        <v>564</v>
+        <v>541</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12995,10 +12908,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="F309" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -13024,10 +12937,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="F310" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -13053,10 +12966,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="F311" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -13082,10 +12995,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="F312" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -13111,10 +13024,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="F313" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -13140,10 +13053,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="F314" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -13169,10 +13082,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="F315" t="s">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -13198,10 +13111,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>579</v>
+        <v>556</v>
       </c>
       <c r="F316" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -13227,10 +13140,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="F317" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -13256,10 +13169,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>583</v>
+        <v>560</v>
       </c>
       <c r="F318" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -13285,10 +13198,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="F319" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -13314,10 +13227,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="F320" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -13343,10 +13256,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>589</v>
+        <v>566</v>
       </c>
       <c r="F321" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -13372,10 +13285,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="F322" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -13401,10 +13314,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="F323" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -13430,10 +13343,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="F324" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -13459,10 +13372,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="F325" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -13488,10 +13401,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="F326" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -13517,10 +13430,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F327" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G327" t="n">
         <v>3</v>
@@ -13546,10 +13459,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="F328" t="s">
-        <v>602</v>
+        <v>388</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -13604,10 +13517,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F330" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -13633,10 +13546,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F331" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -13662,10 +13575,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F332" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -13691,10 +13604,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F333" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -13720,10 +13633,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="F334" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -13749,10 +13662,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="F335" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -13778,10 +13691,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="F336" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -13807,10 +13720,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="F337" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13836,10 +13749,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="F338" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13865,10 +13778,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="F339" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13894,10 +13807,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="F340" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -13923,10 +13836,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="F341" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13952,10 +13865,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="F342" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13981,10 +13894,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="F343" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -14010,10 +13923,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="F344" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -14039,10 +13952,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="F345" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -14068,10 +13981,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="F346" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -14097,10 +14010,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="F347" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -14126,10 +14039,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="F348" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -14155,10 +14068,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="F349" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -14184,10 +14097,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="F350" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -14213,10 +14126,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="F351" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -14242,10 +14155,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="F352" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -14271,10 +14184,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="F353" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -14300,10 +14213,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="F354" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -14329,10 +14242,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="F355" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -14358,10 +14271,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="F356" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -14387,10 +14300,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="F357" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -14416,10 +14329,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="F358" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -14445,10 +14358,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="F359" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -14474,10 +14387,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="F360" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -14503,10 +14416,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="F361" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -14532,10 +14445,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="F362" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -14561,10 +14474,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="F363" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -14590,10 +14503,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="F364" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="G364" t="n">
         <v>3</v>
@@ -14619,10 +14532,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="F365" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -14648,10 +14561,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="F366" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -14677,10 +14590,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="F367" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -14706,10 +14619,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="F368" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -14735,10 +14648,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="F369" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -14764,10 +14677,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="F370" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -14793,10 +14706,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="F371" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14822,10 +14735,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="F372" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -14851,10 +14764,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="F373" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14880,10 +14793,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="F374" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="G374" t="n">
         <v>3</v>
@@ -14909,10 +14822,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="F375" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -14938,10 +14851,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="F376" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14967,10 +14880,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="F377" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14996,10 +14909,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="F378" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -15025,10 +14938,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="F379" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -15054,10 +14967,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="F380" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -15083,10 +14996,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="F381" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -15112,10 +15025,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="F382" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -15141,10 +15054,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="F383" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -15170,10 +15083,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="F384" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -15199,10 +15112,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="F385" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -15228,10 +15141,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="F386" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="G386" t="n">
         <v>4</v>
@@ -15257,10 +15170,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="F387" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -15286,10 +15199,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="F388" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -15315,10 +15228,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="F389" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -15344,10 +15257,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="F390" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -15373,10 +15286,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="F391" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -15402,10 +15315,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="F392" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -15431,10 +15344,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="F393" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -15460,10 +15373,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="F394" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -15489,10 +15402,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="F395" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -15518,10 +15431,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="F396" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -15547,10 +15460,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="F397" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -15576,10 +15489,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="F398" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="G398" t="n">
         <v>2</v>
@@ -15605,10 +15518,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="F399" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -15634,10 +15547,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="F400" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -15663,10 +15576,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="F401" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -15692,10 +15605,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
       <c r="F402" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="G402" t="n">
         <v>4</v>
@@ -15721,10 +15634,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="F403" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -15750,10 +15663,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="F404" t="s">
-        <v>736</v>
+        <v>712</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -15779,10 +15692,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>737</v>
+        <v>713</v>
       </c>
       <c r="F405" t="s">
-        <v>738</v>
+        <v>714</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -15808,10 +15721,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>739</v>
+        <v>715</v>
       </c>
       <c r="F406" t="s">
-        <v>740</v>
+        <v>716</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -15837,10 +15750,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>741</v>
+        <v>717</v>
       </c>
       <c r="F407" t="s">
-        <v>742</v>
+        <v>718</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15866,10 +15779,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="F408" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15895,10 +15808,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="F409" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15924,10 +15837,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>743</v>
+        <v>719</v>
       </c>
       <c r="F410" t="s">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="G410" t="n">
         <v>3</v>
@@ -15953,10 +15866,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="F411" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15982,10 +15895,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>745</v>
+        <v>721</v>
       </c>
       <c r="F412" t="s">
-        <v>746</v>
+        <v>722</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -16011,10 +15924,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>747</v>
+        <v>723</v>
       </c>
       <c r="F413" t="s">
-        <v>748</v>
+        <v>724</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -16040,10 +15953,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="F414" t="s">
-        <v>750</v>
+        <v>726</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -16069,10 +15982,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>751</v>
+        <v>727</v>
       </c>
       <c r="F415" t="s">
-        <v>752</v>
+        <v>728</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -16098,10 +16011,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="F416" t="s">
-        <v>754</v>
+        <v>730</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -16127,10 +16040,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>755</v>
+        <v>731</v>
       </c>
       <c r="F417" t="s">
-        <v>756</v>
+        <v>732</v>
       </c>
       <c r="G417" t="n">
         <v>3</v>
@@ -16156,10 +16069,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>757</v>
+        <v>733</v>
       </c>
       <c r="F418" t="s">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="G418" t="n">
         <v>98</v>
@@ -16185,10 +16098,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>759</v>
+        <v>735</v>
       </c>
       <c r="F419" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
       <c r="G419" t="n">
         <v>29</v>
@@ -16214,10 +16127,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>761</v>
+        <v>737</v>
       </c>
       <c r="F420" t="s">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="G420" t="n">
         <v>98</v>
@@ -16243,10 +16156,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>763</v>
+        <v>739</v>
       </c>
       <c r="F421" t="s">
-        <v>764</v>
+        <v>740</v>
       </c>
       <c r="G421" t="n">
         <v>64</v>
@@ -16272,10 +16185,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>765</v>
+        <v>741</v>
       </c>
       <c r="F422" t="s">
-        <v>766</v>
+        <v>742</v>
       </c>
       <c r="G422" t="n">
         <v>98</v>
@@ -16301,10 +16214,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="F423" t="s">
-        <v>768</v>
+        <v>744</v>
       </c>
       <c r="G423" t="n">
         <v>3</v>
@@ -16330,10 +16243,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>769</v>
+        <v>745</v>
       </c>
       <c r="F424" t="s">
-        <v>770</v>
+        <v>746</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -16359,10 +16272,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>771</v>
+        <v>747</v>
       </c>
       <c r="F425" t="s">
-        <v>772</v>
+        <v>748</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -16388,10 +16301,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>773</v>
+        <v>749</v>
       </c>
       <c r="F426" t="s">
-        <v>774</v>
+        <v>750</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -16417,10 +16330,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>775</v>
+        <v>751</v>
       </c>
       <c r="F427" t="s">
-        <v>776</v>
+        <v>752</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -16446,10 +16359,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>777</v>
+        <v>753</v>
       </c>
       <c r="F428" t="s">
-        <v>778</v>
+        <v>754</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -16475,10 +16388,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>779</v>
+        <v>755</v>
       </c>
       <c r="F429" t="s">
-        <v>780</v>
+        <v>756</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -16504,10 +16417,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>781</v>
+        <v>757</v>
       </c>
       <c r="F430" t="s">
-        <v>782</v>
+        <v>758</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -16533,10 +16446,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>783</v>
+        <v>759</v>
       </c>
       <c r="F431" t="s">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -16562,10 +16475,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>785</v>
+        <v>761</v>
       </c>
       <c r="F432" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -16591,10 +16504,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="F433" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -16620,10 +16533,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>789</v>
+        <v>765</v>
       </c>
       <c r="F434" t="s">
-        <v>790</v>
+        <v>766</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -16649,10 +16562,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>791</v>
+        <v>767</v>
       </c>
       <c r="F435" t="s">
-        <v>792</v>
+        <v>768</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -16678,10 +16591,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>793</v>
+        <v>769</v>
       </c>
       <c r="F436" t="s">
-        <v>794</v>
+        <v>770</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -16707,10 +16620,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>795</v>
+        <v>771</v>
       </c>
       <c r="F437" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -16736,10 +16649,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
       <c r="F438" t="s">
-        <v>798</v>
+        <v>774</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -16765,10 +16678,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>799</v>
+        <v>775</v>
       </c>
       <c r="F439" t="s">
-        <v>800</v>
+        <v>776</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -16794,10 +16707,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>801</v>
+        <v>777</v>
       </c>
       <c r="F440" t="s">
-        <v>802</v>
+        <v>778</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16823,10 +16736,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
       <c r="F441" t="s">
-        <v>804</v>
+        <v>780</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16852,10 +16765,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>805</v>
+        <v>781</v>
       </c>
       <c r="F442" t="s">
-        <v>806</v>
+        <v>782</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16881,10 +16794,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>807</v>
+        <v>783</v>
       </c>
       <c r="F443" t="s">
-        <v>808</v>
+        <v>784</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16910,10 +16823,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>809</v>
+        <v>785</v>
       </c>
       <c r="F444" t="s">
-        <v>810</v>
+        <v>786</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16939,10 +16852,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>811</v>
+        <v>787</v>
       </c>
       <c r="F445" t="s">
-        <v>812</v>
+        <v>788</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16968,10 +16881,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>813</v>
+        <v>789</v>
       </c>
       <c r="F446" t="s">
-        <v>814</v>
+        <v>790</v>
       </c>
       <c r="G446" t="n">
         <v>2</v>
@@ -16997,10 +16910,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>815</v>
+        <v>791</v>
       </c>
       <c r="F447" t="s">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -17026,10 +16939,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="F448" t="s">
-        <v>818</v>
+        <v>794</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -17055,10 +16968,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>819</v>
+        <v>795</v>
       </c>
       <c r="F449" t="s">
-        <v>820</v>
+        <v>796</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -17084,10 +16997,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>821</v>
+        <v>797</v>
       </c>
       <c r="F450" t="s">
-        <v>822</v>
+        <v>798</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -17113,10 +17026,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>823</v>
+        <v>799</v>
       </c>
       <c r="F451" t="s">
-        <v>824</v>
+        <v>800</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -17142,10 +17055,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
       <c r="F452" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -17171,10 +17084,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="F453" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="G453" t="n">
         <v>2</v>
@@ -17200,10 +17113,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="F454" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -17229,10 +17142,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="F455" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="G455" t="n">
         <v>2</v>
@@ -17258,10 +17171,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
       <c r="F456" t="s">
-        <v>834</v>
+        <v>810</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -17287,10 +17200,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>835</v>
+        <v>811</v>
       </c>
       <c r="F457" t="s">
-        <v>836</v>
+        <v>812</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -17316,10 +17229,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>837</v>
+        <v>813</v>
       </c>
       <c r="F458" t="s">
-        <v>838</v>
+        <v>814</v>
       </c>
       <c r="G458" t="n">
         <v>2</v>
@@ -17345,10 +17258,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>839</v>
+        <v>815</v>
       </c>
       <c r="F459" t="s">
-        <v>840</v>
+        <v>816</v>
       </c>
       <c r="G459" t="n">
         <v>2</v>
@@ -17374,10 +17287,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>841</v>
+        <v>817</v>
       </c>
       <c r="F460" t="s">
-        <v>842</v>
+        <v>818</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -17403,10 +17316,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>843</v>
+        <v>819</v>
       </c>
       <c r="F461" t="s">
-        <v>844</v>
+        <v>820</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -17432,10 +17345,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>845</v>
+        <v>821</v>
       </c>
       <c r="F462" t="s">
-        <v>846</v>
+        <v>822</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -17461,10 +17374,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>847</v>
+        <v>823</v>
       </c>
       <c r="F463" t="s">
-        <v>848</v>
+        <v>824</v>
       </c>
       <c r="G463" t="n">
         <v>1</v>
@@ -17490,10 +17403,10 @@
         <v>463</v>
       </c>
       <c r="E464" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="F464" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="G464" t="n">
         <v>1</v>
@@ -17519,10 +17432,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>851</v>
+        <v>827</v>
       </c>
       <c r="F465" t="s">
-        <v>852</v>
+        <v>828</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -17548,10 +17461,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>853</v>
+        <v>829</v>
       </c>
       <c r="F466" t="s">
-        <v>854</v>
+        <v>830</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -17577,10 +17490,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="F467" t="s">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -17606,10 +17519,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>857</v>
+        <v>833</v>
       </c>
       <c r="F468" t="s">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -17635,10 +17548,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="F469" t="s">
-        <v>860</v>
+        <v>836</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -17664,10 +17577,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>861</v>
+        <v>837</v>
       </c>
       <c r="F470" t="s">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -17693,10 +17606,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>863</v>
+        <v>839</v>
       </c>
       <c r="F471" t="s">
-        <v>864</v>
+        <v>840</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -17722,10 +17635,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="F472" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="G472" t="n">
         <v>1</v>
@@ -17751,10 +17664,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>867</v>
+        <v>843</v>
       </c>
       <c r="F473" t="s">
-        <v>868</v>
+        <v>844</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -17780,10 +17693,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>869</v>
+        <v>845</v>
       </c>
       <c r="F474" t="s">
-        <v>870</v>
+        <v>846</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -17809,10 +17722,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>871</v>
+        <v>847</v>
       </c>
       <c r="F475" t="s">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="G475" t="n">
         <v>2</v>
@@ -17838,10 +17751,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>873</v>
+        <v>849</v>
       </c>
       <c r="F476" t="s">
-        <v>874</v>
+        <v>850</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17867,10 +17780,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>875</v>
+        <v>851</v>
       </c>
       <c r="F477" t="s">
-        <v>876</v>
+        <v>852</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17896,10 +17809,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="F478" t="s">
-        <v>878</v>
+        <v>854</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17925,10 +17838,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>879</v>
+        <v>855</v>
       </c>
       <c r="F479" t="s">
-        <v>880</v>
+        <v>856</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17954,10 +17867,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>881</v>
+        <v>857</v>
       </c>
       <c r="F480" t="s">
-        <v>882</v>
+        <v>858</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17983,10 +17896,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
-        <v>883</v>
+        <v>859</v>
       </c>
       <c r="F481" t="s">
-        <v>884</v>
+        <v>860</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -18012,10 +17925,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="F482" t="s">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -18041,10 +17954,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="F483" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -18070,10 +17983,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="F484" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -18099,10 +18012,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>887</v>
+        <v>863</v>
       </c>
       <c r="F485" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -18128,10 +18041,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>889</v>
+        <v>865</v>
       </c>
       <c r="F486" t="s">
-        <v>890</v>
+        <v>866</v>
       </c>
       <c r="G486" t="n">
         <v>1</v>
@@ -18157,10 +18070,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>891</v>
+        <v>867</v>
       </c>
       <c r="F487" t="s">
-        <v>892</v>
+        <v>868</v>
       </c>
       <c r="G487" t="n">
         <v>2</v>
@@ -18186,10 +18099,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>893</v>
+        <v>869</v>
       </c>
       <c r="F488" t="s">
-        <v>894</v>
+        <v>870</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -18215,10 +18128,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>895</v>
+        <v>871</v>
       </c>
       <c r="F489" t="s">
-        <v>896</v>
+        <v>872</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -18244,10 +18157,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>897</v>
+        <v>873</v>
       </c>
       <c r="F490" t="s">
-        <v>898</v>
+        <v>874</v>
       </c>
       <c r="G490" t="n">
         <v>2</v>
@@ -18273,10 +18186,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>899</v>
+        <v>875</v>
       </c>
       <c r="F491" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -18302,10 +18215,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="F492" t="s">
-        <v>902</v>
+        <v>878</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -18331,10 +18244,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="F493" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -18360,10 +18273,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="F494" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -18389,10 +18302,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>905</v>
+        <v>881</v>
       </c>
       <c r="F495" t="s">
-        <v>906</v>
+        <v>882</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -18418,10 +18331,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>907</v>
+        <v>883</v>
       </c>
       <c r="F496" t="s">
-        <v>908</v>
+        <v>884</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -18447,10 +18360,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>909</v>
+        <v>885</v>
       </c>
       <c r="F497" t="s">
-        <v>910</v>
+        <v>886</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -18476,10 +18389,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>911</v>
+        <v>887</v>
       </c>
       <c r="F498" t="s">
-        <v>912</v>
+        <v>888</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -18505,10 +18418,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>913</v>
+        <v>889</v>
       </c>
       <c r="F499" t="s">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -18534,10 +18447,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>915</v>
+        <v>891</v>
       </c>
       <c r="F500" t="s">
-        <v>916</v>
+        <v>892</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -18563,10 +18476,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>917</v>
+        <v>893</v>
       </c>
       <c r="F501" t="s">
-        <v>918</v>
+        <v>894</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -18592,10 +18505,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>919</v>
+        <v>895</v>
       </c>
       <c r="F502" t="s">
-        <v>920</v>
+        <v>896</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -18621,10 +18534,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>921</v>
+        <v>897</v>
       </c>
       <c r="F503" t="s">
-        <v>922</v>
+        <v>898</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -18650,10 +18563,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>923</v>
+        <v>899</v>
       </c>
       <c r="F504" t="s">
-        <v>924</v>
+        <v>900</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -18679,10 +18592,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="F505" t="s">
-        <v>926</v>
+        <v>902</v>
       </c>
       <c r="G505" t="n">
         <v>1</v>
@@ -18708,10 +18621,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>927</v>
+        <v>903</v>
       </c>
       <c r="F506" t="s">
-        <v>928</v>
+        <v>904</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -18737,10 +18650,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>929</v>
+        <v>905</v>
       </c>
       <c r="F507" t="s">
-        <v>930</v>
+        <v>906</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -18766,10 +18679,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="F508" t="s">
-        <v>932</v>
+        <v>908</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -18795,10 +18708,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>933</v>
+        <v>909</v>
       </c>
       <c r="F509" t="s">
-        <v>934</v>
+        <v>910</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18824,10 +18737,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>935</v>
+        <v>911</v>
       </c>
       <c r="F510" t="s">
-        <v>936</v>
+        <v>912</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18853,10 +18766,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>937</v>
+        <v>913</v>
       </c>
       <c r="F511" t="s">
-        <v>938</v>
+        <v>914</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18882,10 +18795,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>939</v>
+        <v>915</v>
       </c>
       <c r="F512" t="s">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18911,10 +18824,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>941</v>
+        <v>917</v>
       </c>
       <c r="F513" t="s">
-        <v>942</v>
+        <v>918</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18940,10 +18853,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>943</v>
+        <v>919</v>
       </c>
       <c r="F514" t="s">
-        <v>944</v>
+        <v>920</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18969,10 +18882,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>945</v>
+        <v>921</v>
       </c>
       <c r="F515" t="s">
-        <v>946</v>
+        <v>922</v>
       </c>
       <c r="G515" t="n">
         <v>1</v>
@@ -18998,10 +18911,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>947</v>
+        <v>923</v>
       </c>
       <c r="F516" t="s">
-        <v>948</v>
+        <v>924</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -19027,10 +18940,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>949</v>
+        <v>925</v>
       </c>
       <c r="F517" t="s">
-        <v>950</v>
+        <v>926</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -19056,10 +18969,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>951</v>
+        <v>927</v>
       </c>
       <c r="F518" t="s">
-        <v>952</v>
+        <v>928</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -19085,10 +18998,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>953</v>
+        <v>929</v>
       </c>
       <c r="F519" t="s">
-        <v>954</v>
+        <v>930</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -19114,10 +19027,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="F520" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -19143,10 +19056,10 @@
         <v>520</v>
       </c>
       <c r="E521" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="F521" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="G521" t="n">
         <v>1</v>
@@ -19172,10 +19085,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="F522" t="s">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -19201,10 +19114,10 @@
         <v>522</v>
       </c>
       <c r="E523" t="s">
-        <v>961</v>
+        <v>937</v>
       </c>
       <c r="F523" t="s">
-        <v>962</v>
+        <v>938</v>
       </c>
       <c r="G523" t="n">
         <v>1</v>
@@ -19230,10 +19143,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
       <c r="F524" t="s">
-        <v>964</v>
+        <v>940</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -19259,10 +19172,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>965</v>
+        <v>941</v>
       </c>
       <c r="F525" t="s">
-        <v>966</v>
+        <v>942</v>
       </c>
       <c r="G525" t="n">
         <v>2</v>
@@ -19288,10 +19201,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>967</v>
+        <v>943</v>
       </c>
       <c r="F526" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -19317,10 +19230,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>969</v>
+        <v>945</v>
       </c>
       <c r="F527" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -19346,10 +19259,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>971</v>
+        <v>947</v>
       </c>
       <c r="F528" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
       <c r="G528" t="n">
         <v>1</v>
@@ -19375,10 +19288,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>973</v>
+        <v>949</v>
       </c>
       <c r="F529" t="s">
-        <v>974</v>
+        <v>950</v>
       </c>
       <c r="G529" t="n">
         <v>2</v>
@@ -19404,10 +19317,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
       <c r="F530" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="G530" t="n">
         <v>1</v>
@@ -19433,10 +19346,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>977</v>
+        <v>953</v>
       </c>
       <c r="F531" t="s">
-        <v>978</v>
+        <v>954</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -19462,10 +19375,10 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>979</v>
+        <v>955</v>
       </c>
       <c r="F532" t="s">
-        <v>980</v>
+        <v>956</v>
       </c>
       <c r="G532" t="n">
         <v>1</v>
@@ -19491,10 +19404,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>981</v>
+        <v>957</v>
       </c>
       <c r="F533" t="s">
-        <v>982</v>
+        <v>958</v>
       </c>
       <c r="G533" t="n">
         <v>3</v>
@@ -19520,10 +19433,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>983</v>
+        <v>959</v>
       </c>
       <c r="F534" t="s">
-        <v>984</v>
+        <v>960</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -19549,10 +19462,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>985</v>
+        <v>961</v>
       </c>
       <c r="F535" t="s">
-        <v>986</v>
+        <v>962</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -19578,10 +19491,10 @@
         <v>535</v>
       </c>
       <c r="E536" t="s">
-        <v>987</v>
+        <v>963</v>
       </c>
       <c r="F536" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="G536" t="n">
         <v>1</v>
@@ -19607,10 +19520,10 @@
         <v>536</v>
       </c>
       <c r="E537" t="s">
-        <v>989</v>
+        <v>965</v>
       </c>
       <c r="F537" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="G537" t="n">
         <v>1</v>
@@ -19636,10 +19549,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>991</v>
+        <v>967</v>
       </c>
       <c r="F538" t="s">
-        <v>992</v>
+        <v>968</v>
       </c>
       <c r="G538" t="n">
         <v>1</v>
@@ -19665,10 +19578,10 @@
         <v>538</v>
       </c>
       <c r="E539" t="s">
-        <v>993</v>
+        <v>969</v>
       </c>
       <c r="F539" t="s">
-        <v>994</v>
+        <v>970</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -19694,10 +19607,10 @@
         <v>539</v>
       </c>
       <c r="E540" t="s">
-        <v>995</v>
+        <v>971</v>
       </c>
       <c r="F540" t="s">
-        <v>996</v>
+        <v>972</v>
       </c>
       <c r="G540" t="n">
         <v>1</v>
@@ -19723,10 +19636,10 @@
         <v>540</v>
       </c>
       <c r="E541" t="s">
-        <v>997</v>
+        <v>973</v>
       </c>
       <c r="F541" t="s">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="G541" t="n">
         <v>1</v>
@@ -19752,10 +19665,10 @@
         <v>541</v>
       </c>
       <c r="E542" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="F542" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="G542" t="n">
         <v>1</v>
@@ -19781,10 +19694,10 @@
         <v>542</v>
       </c>
       <c r="E543" t="s">
-        <v>999</v>
+        <v>975</v>
       </c>
       <c r="F543" t="s">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="G543" t="n">
         <v>1</v>
@@ -19810,10 +19723,10 @@
         <v>543</v>
       </c>
       <c r="E544" t="s">
-        <v>1001</v>
+        <v>977</v>
       </c>
       <c r="F544" t="s">
-        <v>1002</v>
+        <v>978</v>
       </c>
       <c r="G544" t="n">
         <v>1</v>
@@ -19839,10 +19752,10 @@
         <v>544</v>
       </c>
       <c r="E545" t="s">
-        <v>1003</v>
+        <v>979</v>
       </c>
       <c r="F545" t="s">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="G545" t="n">
         <v>1</v>
@@ -19868,10 +19781,10 @@
         <v>545</v>
       </c>
       <c r="E546" t="s">
-        <v>1005</v>
+        <v>981</v>
       </c>
       <c r="F546" t="s">
-        <v>1006</v>
+        <v>982</v>
       </c>
       <c r="G546" t="n">
         <v>1</v>
@@ -19897,10 +19810,10 @@
         <v>546</v>
       </c>
       <c r="E547" t="s">
-        <v>1007</v>
+        <v>983</v>
       </c>
       <c r="F547" t="s">
-        <v>1008</v>
+        <v>984</v>
       </c>
       <c r="G547" t="n">
         <v>1</v>
@@ -19926,10 +19839,10 @@
         <v>547</v>
       </c>
       <c r="E548" t="s">
-        <v>1009</v>
+        <v>985</v>
       </c>
       <c r="F548" t="s">
-        <v>1010</v>
+        <v>986</v>
       </c>
       <c r="G548" t="n">
         <v>1</v>
@@ -19955,10 +19868,10 @@
         <v>548</v>
       </c>
       <c r="E549" t="s">
-        <v>1011</v>
+        <v>987</v>
       </c>
       <c r="F549" t="s">
-        <v>1012</v>
+        <v>988</v>
       </c>
       <c r="G549" t="n">
         <v>1</v>
@@ -19984,10 +19897,10 @@
         <v>549</v>
       </c>
       <c r="E550" t="s">
-        <v>1013</v>
+        <v>989</v>
       </c>
       <c r="F550" t="s">
-        <v>1014</v>
+        <v>990</v>
       </c>
       <c r="G550" t="n">
         <v>2</v>
@@ -20013,10 +19926,10 @@
         <v>550</v>
       </c>
       <c r="E551" t="s">
-        <v>1015</v>
+        <v>991</v>
       </c>
       <c r="F551" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
       <c r="G551" t="n">
         <v>1</v>
@@ -20042,10 +19955,10 @@
         <v>551</v>
       </c>
       <c r="E552" t="s">
-        <v>1017</v>
+        <v>993</v>
       </c>
       <c r="F552" t="s">
-        <v>1018</v>
+        <v>994</v>
       </c>
       <c r="G552" t="n">
         <v>1</v>
@@ -20071,10 +19984,10 @@
         <v>552</v>
       </c>
       <c r="E553" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
       <c r="F553" t="s">
-        <v>1020</v>
+        <v>996</v>
       </c>
       <c r="G553" t="n">
         <v>1</v>
@@ -20100,10 +20013,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>1021</v>
+        <v>997</v>
       </c>
       <c r="F554" t="s">
-        <v>1022</v>
+        <v>998</v>
       </c>
       <c r="G554" t="n">
         <v>4</v>
@@ -20129,10 +20042,10 @@
         <v>554</v>
       </c>
       <c r="E555" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
       <c r="F555" t="s">
-        <v>1024</v>
+        <v>1000</v>
       </c>
       <c r="G555" t="n">
         <v>1</v>
@@ -20158,10 +20071,10 @@
         <v>555</v>
       </c>
       <c r="E556" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="F556" t="s">
-        <v>1026</v>
+        <v>1002</v>
       </c>
       <c r="G556" t="n">
         <v>1</v>
@@ -20187,10 +20100,10 @@
         <v>556</v>
       </c>
       <c r="E557" t="s">
-        <v>1027</v>
+        <v>1003</v>
       </c>
       <c r="F557" t="s">
-        <v>1028</v>
+        <v>1004</v>
       </c>
       <c r="G557" t="n">
         <v>1</v>
@@ -20216,10 +20129,10 @@
         <v>557</v>
       </c>
       <c r="E558" t="s">
-        <v>1029</v>
+        <v>1005</v>
       </c>
       <c r="F558" t="s">
-        <v>1030</v>
+        <v>1006</v>
       </c>
       <c r="G558" t="n">
         <v>1</v>
@@ -20245,10 +20158,10 @@
         <v>558</v>
       </c>
       <c r="E559" t="s">
-        <v>1031</v>
+        <v>1007</v>
       </c>
       <c r="F559" t="s">
-        <v>1032</v>
+        <v>115</v>
       </c>
       <c r="G559" t="n">
         <v>2</v>
@@ -20303,10 +20216,10 @@
         <v>560</v>
       </c>
       <c r="E561" t="s">
-        <v>1033</v>
+        <v>1008</v>
       </c>
       <c r="F561" t="s">
-        <v>1034</v>
+        <v>1009</v>
       </c>
       <c r="G561" t="n">
         <v>1</v>
@@ -20332,10 +20245,10 @@
         <v>561</v>
       </c>
       <c r="E562" t="s">
-        <v>1035</v>
+        <v>1010</v>
       </c>
       <c r="F562" t="s">
-        <v>1036</v>
+        <v>1011</v>
       </c>
       <c r="G562" t="n">
         <v>1</v>
@@ -20361,10 +20274,10 @@
         <v>562</v>
       </c>
       <c r="E563" t="s">
-        <v>1037</v>
+        <v>1012</v>
       </c>
       <c r="F563" t="s">
-        <v>1038</v>
+        <v>1013</v>
       </c>
       <c r="G563" t="n">
         <v>1</v>
@@ -20390,10 +20303,10 @@
         <v>563</v>
       </c>
       <c r="E564" t="s">
-        <v>1039</v>
+        <v>1014</v>
       </c>
       <c r="F564" t="s">
-        <v>1040</v>
+        <v>1015</v>
       </c>
       <c r="G564" t="n">
         <v>1</v>
@@ -20419,10 +20332,10 @@
         <v>564</v>
       </c>
       <c r="E565" t="s">
-        <v>1041</v>
+        <v>1016</v>
       </c>
       <c r="F565" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
       <c r="G565" t="n">
         <v>1</v>
@@ -20448,10 +20361,10 @@
         <v>565</v>
       </c>
       <c r="E566" t="s">
-        <v>1043</v>
+        <v>1018</v>
       </c>
       <c r="F566" t="s">
-        <v>1044</v>
+        <v>1019</v>
       </c>
       <c r="G566" t="n">
         <v>1</v>
@@ -20477,10 +20390,10 @@
         <v>566</v>
       </c>
       <c r="E567" t="s">
-        <v>1045</v>
+        <v>1020</v>
       </c>
       <c r="F567" t="s">
-        <v>1046</v>
+        <v>1021</v>
       </c>
       <c r="G567" t="n">
         <v>1</v>
@@ -20506,10 +20419,10 @@
         <v>567</v>
       </c>
       <c r="E568" t="s">
-        <v>1047</v>
+        <v>1022</v>
       </c>
       <c r="F568" t="s">
-        <v>1048</v>
+        <v>1023</v>
       </c>
       <c r="G568" t="n">
         <v>1</v>
@@ -20535,10 +20448,10 @@
         <v>568</v>
       </c>
       <c r="E569" t="s">
-        <v>1049</v>
+        <v>1024</v>
       </c>
       <c r="F569" t="s">
-        <v>1050</v>
+        <v>1025</v>
       </c>
       <c r="G569" t="n">
         <v>1</v>
@@ -20564,10 +20477,10 @@
         <v>569</v>
       </c>
       <c r="E570" t="s">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="F570" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="G570" t="n">
         <v>1</v>
@@ -20593,10 +20506,10 @@
         <v>570</v>
       </c>
       <c r="E571" t="s">
-        <v>1053</v>
+        <v>1028</v>
       </c>
       <c r="F571" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="G571" t="n">
         <v>1</v>
@@ -20622,10 +20535,10 @@
         <v>571</v>
       </c>
       <c r="E572" t="s">
-        <v>1055</v>
+        <v>1030</v>
       </c>
       <c r="F572" t="s">
-        <v>1056</v>
+        <v>1031</v>
       </c>
       <c r="G572" t="n">
         <v>1</v>
@@ -20651,10 +20564,10 @@
         <v>572</v>
       </c>
       <c r="E573" t="s">
-        <v>1057</v>
+        <v>1032</v>
       </c>
       <c r="F573" t="s">
-        <v>1058</v>
+        <v>1033</v>
       </c>
       <c r="G573" t="n">
         <v>1</v>
@@ -20680,10 +20593,10 @@
         <v>573</v>
       </c>
       <c r="E574" t="s">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="F574" t="s">
-        <v>1060</v>
+        <v>1035</v>
       </c>
       <c r="G574" t="n">
         <v>1</v>
@@ -20709,10 +20622,10 @@
         <v>574</v>
       </c>
       <c r="E575" t="s">
-        <v>1061</v>
+        <v>1036</v>
       </c>
       <c r="F575" t="s">
-        <v>1062</v>
+        <v>1037</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -20738,10 +20651,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>1063</v>
+        <v>1038</v>
       </c>
       <c r="F576" t="s">
-        <v>1064</v>
+        <v>1039</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -20767,10 +20680,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>1065</v>
+        <v>1040</v>
       </c>
       <c r="F577" t="s">
-        <v>1066</v>
+        <v>1041</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -20796,10 +20709,10 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1067</v>
+        <v>1042</v>
       </c>
       <c r="F578" t="s">
-        <v>1068</v>
+        <v>1043</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -20825,10 +20738,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1069</v>
+        <v>1044</v>
       </c>
       <c r="F579" t="s">
-        <v>1070</v>
+        <v>1045</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -20854,10 +20767,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1071</v>
+        <v>1046</v>
       </c>
       <c r="F580" t="s">
-        <v>1072</v>
+        <v>1047</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -20883,10 +20796,10 @@
         <v>580</v>
       </c>
       <c r="E581" t="s">
-        <v>1073</v>
+        <v>1048</v>
       </c>
       <c r="F581" t="s">
-        <v>1074</v>
+        <v>1049</v>
       </c>
       <c r="G581" t="n">
         <v>1</v>
@@ -20912,10 +20825,10 @@
         <v>581</v>
       </c>
       <c r="E582" t="s">
-        <v>1075</v>
+        <v>1050</v>
       </c>
       <c r="F582" t="s">
-        <v>1076</v>
+        <v>1051</v>
       </c>
       <c r="G582" t="n">
         <v>1</v>
@@ -20941,10 +20854,10 @@
         <v>582</v>
       </c>
       <c r="E583" t="s">
-        <v>1077</v>
+        <v>1052</v>
       </c>
       <c r="F583" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="G583" t="n">
         <v>1</v>
@@ -20970,10 +20883,10 @@
         <v>583</v>
       </c>
       <c r="E584" t="s">
-        <v>1079</v>
+        <v>1054</v>
       </c>
       <c r="F584" t="s">
-        <v>1080</v>
+        <v>1055</v>
       </c>
       <c r="G584" t="n">
         <v>1</v>
@@ -20999,10 +20912,10 @@
         <v>584</v>
       </c>
       <c r="E585" t="s">
-        <v>1081</v>
+        <v>1056</v>
       </c>
       <c r="F585" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
       <c r="G585" t="n">
         <v>1</v>
@@ -21028,10 +20941,10 @@
         <v>585</v>
       </c>
       <c r="E586" t="s">
-        <v>1083</v>
+        <v>1058</v>
       </c>
       <c r="F586" t="s">
-        <v>1084</v>
+        <v>1059</v>
       </c>
       <c r="G586" t="n">
         <v>1</v>
@@ -21057,10 +20970,10 @@
         <v>586</v>
       </c>
       <c r="E587" t="s">
-        <v>1085</v>
+        <v>1060</v>
       </c>
       <c r="F587" t="s">
-        <v>1086</v>
+        <v>1061</v>
       </c>
       <c r="G587" t="n">
         <v>1</v>
@@ -21086,10 +20999,10 @@
         <v>587</v>
       </c>
       <c r="E588" t="s">
-        <v>1087</v>
+        <v>1062</v>
       </c>
       <c r="F588" t="s">
-        <v>1088</v>
+        <v>1063</v>
       </c>
       <c r="G588" t="n">
         <v>1</v>
@@ -21115,10 +21028,10 @@
         <v>588</v>
       </c>
       <c r="E589" t="s">
-        <v>1089</v>
+        <v>1064</v>
       </c>
       <c r="F589" t="s">
-        <v>1090</v>
+        <v>1065</v>
       </c>
       <c r="G589" t="n">
         <v>1</v>
@@ -21144,10 +21057,10 @@
         <v>589</v>
       </c>
       <c r="E590" t="s">
-        <v>1091</v>
+        <v>1066</v>
       </c>
       <c r="F590" t="s">
-        <v>1092</v>
+        <v>1067</v>
       </c>
       <c r="G590" t="n">
         <v>1</v>
@@ -21173,10 +21086,10 @@
         <v>590</v>
       </c>
       <c r="E591" t="s">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="F591" t="s">
-        <v>1094</v>
+        <v>1069</v>
       </c>
       <c r="G591" t="n">
         <v>1</v>
@@ -21202,10 +21115,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>1095</v>
+        <v>1070</v>
       </c>
       <c r="F592" t="s">
-        <v>1096</v>
+        <v>1071</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -21231,10 +21144,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1097</v>
+        <v>1072</v>
       </c>
       <c r="F593" t="s">
-        <v>1098</v>
+        <v>1073</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -21260,10 +21173,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1099</v>
+        <v>1074</v>
       </c>
       <c r="F594" t="s">
-        <v>1100</v>
+        <v>1075</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -21289,10 +21202,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1101</v>
+        <v>1076</v>
       </c>
       <c r="F595" t="s">
-        <v>1102</v>
+        <v>1077</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -21318,10 +21231,10 @@
         <v>595</v>
       </c>
       <c r="E596" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="F596" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="G596" t="n">
         <v>2</v>
@@ -21347,10 +21260,10 @@
         <v>596</v>
       </c>
       <c r="E597" t="s">
-        <v>1103</v>
+        <v>1078</v>
       </c>
       <c r="F597" t="s">
-        <v>1104</v>
+        <v>1079</v>
       </c>
       <c r="G597" t="n">
         <v>1</v>
@@ -21376,10 +21289,10 @@
         <v>597</v>
       </c>
       <c r="E598" t="s">
+        <v>120</v>
+      </c>
+      <c r="F598" t="s">
         <v>121</v>
-      </c>
-      <c r="F598" t="s">
-        <v>122</v>
       </c>
       <c r="G598" t="n">
         <v>1</v>
@@ -21405,10 +21318,10 @@
         <v>598</v>
       </c>
       <c r="E599" t="s">
-        <v>1105</v>
+        <v>1080</v>
       </c>
       <c r="F599" t="s">
-        <v>1106</v>
+        <v>1081</v>
       </c>
       <c r="G599" t="n">
         <v>1</v>
@@ -21434,10 +21347,10 @@
         <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>1107</v>
+        <v>1082</v>
       </c>
       <c r="F600" t="s">
-        <v>1108</v>
+        <v>1083</v>
       </c>
       <c r="G600" t="n">
         <v>1</v>
@@ -21463,10 +21376,10 @@
         <v>600</v>
       </c>
       <c r="E601" t="s">
-        <v>1109</v>
+        <v>1084</v>
       </c>
       <c r="F601" t="s">
-        <v>1110</v>
+        <v>1085</v>
       </c>
       <c r="G601" t="n">
         <v>1</v>
@@ -21492,10 +21405,10 @@
         <v>601</v>
       </c>
       <c r="E602" t="s">
-        <v>1111</v>
+        <v>1086</v>
       </c>
       <c r="F602" t="s">
-        <v>1112</v>
+        <v>1087</v>
       </c>
       <c r="G602" t="n">
         <v>1</v>
@@ -21521,10 +21434,10 @@
         <v>602</v>
       </c>
       <c r="E603" t="s">
-        <v>1113</v>
+        <v>1088</v>
       </c>
       <c r="F603" t="s">
-        <v>1114</v>
+        <v>1089</v>
       </c>
       <c r="G603" t="n">
         <v>1</v>
@@ -21550,10 +21463,10 @@
         <v>603</v>
       </c>
       <c r="E604" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F604" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G604" t="n">
         <v>2</v>
@@ -21579,10 +21492,10 @@
         <v>604</v>
       </c>
       <c r="E605" t="s">
-        <v>1115</v>
+        <v>1090</v>
       </c>
       <c r="F605" t="s">
-        <v>1116</v>
+        <v>1091</v>
       </c>
       <c r="G605" t="n">
         <v>1</v>
@@ -21608,10 +21521,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>1117</v>
+        <v>1092</v>
       </c>
       <c r="F606" t="s">
-        <v>1118</v>
+        <v>1093</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -21637,10 +21550,10 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1119</v>
+        <v>1094</v>
       </c>
       <c r="F607" t="s">
-        <v>1120</v>
+        <v>1095</v>
       </c>
       <c r="G607" t="n">
         <v>1</v>
@@ -21666,10 +21579,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>1121</v>
+        <v>1096</v>
       </c>
       <c r="F608" t="s">
-        <v>1122</v>
+        <v>1097</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -21695,10 +21608,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1123</v>
+        <v>1098</v>
       </c>
       <c r="F609" t="s">
-        <v>1124</v>
+        <v>1099</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -21724,10 +21637,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1125</v>
+        <v>1100</v>
       </c>
       <c r="F610" t="s">
-        <v>1126</v>
+        <v>1101</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -21753,10 +21666,10 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1127</v>
+        <v>1102</v>
       </c>
       <c r="F611" t="s">
-        <v>1128</v>
+        <v>1103</v>
       </c>
       <c r="G611" t="n">
         <v>1</v>
@@ -21782,10 +21695,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1129</v>
+        <v>1104</v>
       </c>
       <c r="F612" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -21811,10 +21724,10 @@
         <v>612</v>
       </c>
       <c r="E613" t="s">
-        <v>1131</v>
+        <v>1106</v>
       </c>
       <c r="F613" t="s">
-        <v>1132</v>
+        <v>1107</v>
       </c>
       <c r="G613" t="n">
         <v>1</v>
@@ -21840,10 +21753,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>1133</v>
+        <v>1108</v>
       </c>
       <c r="F614" t="s">
-        <v>1134</v>
+        <v>1109</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -21869,10 +21782,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1135</v>
+        <v>1110</v>
       </c>
       <c r="F615" t="s">
-        <v>1136</v>
+        <v>1111</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -21898,10 +21811,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1137</v>
+        <v>1112</v>
       </c>
       <c r="F616" t="s">
-        <v>1138</v>
+        <v>1113</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -21927,10 +21840,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="F617" t="s">
-        <v>1140</v>
+        <v>1115</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -21956,10 +21869,10 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>1141</v>
+        <v>1116</v>
       </c>
       <c r="F618" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="G618" t="n">
         <v>1</v>
@@ -21985,10 +21898,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
+        <v>118</v>
+      </c>
+      <c r="F619" t="s">
         <v>119</v>
-      </c>
-      <c r="F619" t="s">
-        <v>120</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -22014,10 +21927,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>1143</v>
+        <v>1118</v>
       </c>
       <c r="F620" t="s">
-        <v>1144</v>
+        <v>295</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -22043,10 +21956,10 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1145</v>
+        <v>1119</v>
       </c>
       <c r="F621" t="s">
-        <v>1146</v>
+        <v>1120</v>
       </c>
       <c r="G621" t="n">
         <v>1</v>
@@ -22072,10 +21985,10 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1147</v>
+        <v>1121</v>
       </c>
       <c r="F622" t="s">
-        <v>1148</v>
+        <v>1122</v>
       </c>
       <c r="G622" t="n">
         <v>1</v>
@@ -22101,10 +22014,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1149</v>
+        <v>1123</v>
       </c>
       <c r="F623" t="s">
-        <v>1150</v>
+        <v>1124</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -22130,10 +22043,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1151</v>
+        <v>1125</v>
       </c>
       <c r="F624" t="s">
-        <v>1152</v>
+        <v>1126</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -22159,10 +22072,10 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1153</v>
+        <v>1127</v>
       </c>
       <c r="F625" t="s">
-        <v>1154</v>
+        <v>1128</v>
       </c>
       <c r="G625" t="n">
         <v>1</v>
@@ -22188,10 +22101,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1155</v>
+        <v>1129</v>
       </c>
       <c r="F626" t="s">
-        <v>1156</v>
+        <v>1130</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -22217,10 +22130,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1157</v>
+        <v>1131</v>
       </c>
       <c r="F627" t="s">
-        <v>1158</v>
+        <v>1132</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -22246,10 +22159,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1159</v>
+        <v>1133</v>
       </c>
       <c r="F628" t="s">
-        <v>1160</v>
+        <v>1134</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -22275,10 +22188,10 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>1161</v>
+        <v>1135</v>
       </c>
       <c r="F629" t="s">
-        <v>1162</v>
+        <v>1136</v>
       </c>
       <c r="G629" t="n">
         <v>1</v>
@@ -22304,10 +22217,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1163</v>
+        <v>1137</v>
       </c>
       <c r="F630" t="s">
-        <v>1164</v>
+        <v>1138</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -22333,10 +22246,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1165</v>
+        <v>1139</v>
       </c>
       <c r="F631" t="s">
-        <v>1166</v>
+        <v>1140</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -22362,10 +22275,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1167</v>
+        <v>1141</v>
       </c>
       <c r="F632" t="s">
-        <v>1168</v>
+        <v>1142</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -22391,10 +22304,10 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>1169</v>
+        <v>1143</v>
       </c>
       <c r="F633" t="s">
-        <v>1170</v>
+        <v>1144</v>
       </c>
       <c r="G633" t="n">
         <v>1</v>
@@ -22420,10 +22333,10 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1171</v>
+        <v>1145</v>
       </c>
       <c r="F634" t="s">
-        <v>1172</v>
+        <v>1146</v>
       </c>
       <c r="G634" t="n">
         <v>1</v>
@@ -22449,10 +22362,10 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1173</v>
+        <v>1147</v>
       </c>
       <c r="F635" t="s">
-        <v>1174</v>
+        <v>1148</v>
       </c>
       <c r="G635" t="n">
         <v>1</v>
@@ -22478,10 +22391,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1175</v>
+        <v>1149</v>
       </c>
       <c r="F636" t="s">
-        <v>1176</v>
+        <v>1150</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -22507,10 +22420,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1177</v>
+        <v>1151</v>
       </c>
       <c r="F637" t="s">
-        <v>1178</v>
+        <v>1152</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -22536,10 +22449,10 @@
         <v>637</v>
       </c>
       <c r="E638" t="s">
-        <v>1179</v>
+        <v>1153</v>
       </c>
       <c r="F638" t="s">
-        <v>1180</v>
+        <v>1154</v>
       </c>
       <c r="G638" t="n">
         <v>1</v>
@@ -22565,10 +22478,10 @@
         <v>638</v>
       </c>
       <c r="E639" t="s">
-        <v>1181</v>
+        <v>1155</v>
       </c>
       <c r="F639" t="s">
-        <v>1182</v>
+        <v>1156</v>
       </c>
       <c r="G639" t="n">
         <v>1</v>
@@ -22594,10 +22507,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>1183</v>
+        <v>1157</v>
       </c>
       <c r="F640" t="s">
-        <v>1184</v>
+        <v>1158</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -22623,10 +22536,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1185</v>
+        <v>1159</v>
       </c>
       <c r="F641" t="s">
-        <v>1186</v>
+        <v>1160</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -22652,10 +22565,10 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1187</v>
+        <v>1161</v>
       </c>
       <c r="F642" t="s">
-        <v>1188</v>
+        <v>1162</v>
       </c>
       <c r="G642" t="n">
         <v>1</v>
@@ -22681,10 +22594,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1189</v>
+        <v>1163</v>
       </c>
       <c r="F643" t="s">
-        <v>1190</v>
+        <v>1164</v>
       </c>
       <c r="G643" t="n">
         <v>1</v>
@@ -22710,10 +22623,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1191</v>
+        <v>1165</v>
       </c>
       <c r="F644" t="s">
-        <v>1192</v>
+        <v>1166</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -22739,10 +22652,10 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1193</v>
+        <v>1167</v>
       </c>
       <c r="F645" t="s">
-        <v>1194</v>
+        <v>1168</v>
       </c>
       <c r="G645" t="n">
         <v>1</v>
@@ -22768,10 +22681,10 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1195</v>
+        <v>1169</v>
       </c>
       <c r="F646" t="s">
-        <v>1196</v>
+        <v>1170</v>
       </c>
       <c r="G646" t="n">
         <v>1</v>
@@ -22797,10 +22710,10 @@
         <v>646</v>
       </c>
       <c r="E647" t="s">
-        <v>1197</v>
+        <v>1171</v>
       </c>
       <c r="F647" t="s">
-        <v>1198</v>
+        <v>180</v>
       </c>
       <c r="G647" t="n">
         <v>1</v>
@@ -22826,10 +22739,10 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>1199</v>
+        <v>1172</v>
       </c>
       <c r="F648" t="s">
-        <v>1200</v>
+        <v>1173</v>
       </c>
       <c r="G648" t="n">
         <v>1</v>
@@ -22855,10 +22768,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>1201</v>
+        <v>1174</v>
       </c>
       <c r="F649" t="s">
-        <v>1202</v>
+        <v>1175</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -22884,10 +22797,10 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1203</v>
+        <v>1176</v>
       </c>
       <c r="F650" t="s">
-        <v>1204</v>
+        <v>1177</v>
       </c>
       <c r="G650" t="n">
         <v>1</v>
@@ -22913,10 +22826,10 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F651" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G651" t="n">
         <v>1</v>
@@ -22942,10 +22855,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1205</v>
+        <v>1178</v>
       </c>
       <c r="F652" t="s">
-        <v>1206</v>
+        <v>1179</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -22971,10 +22884,10 @@
         <v>652</v>
       </c>
       <c r="E653" t="s">
-        <v>1207</v>
+        <v>1180</v>
       </c>
       <c r="F653" t="s">
-        <v>1208</v>
+        <v>1181</v>
       </c>
       <c r="G653" t="n">
         <v>1</v>
@@ -23000,10 +22913,10 @@
         <v>653</v>
       </c>
       <c r="E654" t="s">
-        <v>1209</v>
+        <v>1182</v>
       </c>
       <c r="F654" t="s">
-        <v>1210</v>
+        <v>1183</v>
       </c>
       <c r="G654" t="n">
         <v>1</v>
@@ -23029,10 +22942,10 @@
         <v>654</v>
       </c>
       <c r="E655" t="s">
-        <v>1211</v>
+        <v>1184</v>
       </c>
       <c r="F655" t="s">
-        <v>1212</v>
+        <v>1185</v>
       </c>
       <c r="G655" t="n">
         <v>1</v>
@@ -23058,10 +22971,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>1213</v>
+        <v>1186</v>
       </c>
       <c r="F656" t="s">
-        <v>1214</v>
+        <v>1187</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -23087,10 +23000,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1215</v>
+        <v>1188</v>
       </c>
       <c r="F657" t="s">
-        <v>1216</v>
+        <v>1189</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -23116,10 +23029,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1217</v>
+        <v>1190</v>
       </c>
       <c r="F658" t="s">
-        <v>1218</v>
+        <v>1191</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -23145,10 +23058,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1219</v>
+        <v>1192</v>
       </c>
       <c r="F659" t="s">
-        <v>1220</v>
+        <v>1193</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -23174,10 +23087,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1221</v>
+        <v>1194</v>
       </c>
       <c r="F660" t="s">
-        <v>1222</v>
+        <v>297</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -23203,10 +23116,10 @@
         <v>660</v>
       </c>
       <c r="E661" t="s">
-        <v>1223</v>
+        <v>1195</v>
       </c>
       <c r="F661" t="s">
-        <v>1224</v>
+        <v>1196</v>
       </c>
       <c r="G661" t="n">
         <v>1</v>
@@ -23232,10 +23145,10 @@
         <v>661</v>
       </c>
       <c r="E662" t="s">
-        <v>1225</v>
+        <v>1197</v>
       </c>
       <c r="F662" t="s">
-        <v>1226</v>
+        <v>438</v>
       </c>
       <c r="G662" t="n">
         <v>1</v>
